--- a/library/database/electromechanical.xlsx
+++ b/library/database/electromechanical.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="switch" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="button" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="fuse" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="shield" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>Part Number</t>
   </si>
@@ -79,6 +80,171 @@
     <t>linear</t>
   </si>
   <si>
+    <t>0.5W</t>
+  </si>
+  <si>
+    <t>Pot, 20k Linear, 0.5W, 20%, Panel Mount, Solder Lugs</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>P230-2EC22BR20K</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>987-1660-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/P230-2EC22BR20K/987-1660-ND/4780751</t>
+  </si>
+  <si>
+    <t>POT00002</t>
+  </si>
+  <si>
+    <t>250k</t>
+  </si>
+  <si>
+    <t>0.25W</t>
+  </si>
+  <si>
+    <t>Pot, 250k, Linear, 0.25W, 20%, Panel Mount, Solder Lugs</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>PDB241-GNL02-254B0</t>
+  </si>
+  <si>
+    <t>PDB241-GNL02-254B0-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/PDB241-GNL02-254B0/PDB241-GNL02-254B0-ND/3780764</t>
+  </si>
+  <si>
+    <t>POT00003</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>Pot, 1M, Linear, 0.5W, 15%, Panel Mount, Solder Lugs</t>
+  </si>
+  <si>
+    <t>PDA241-SRT02-105B0</t>
+  </si>
+  <si>
+    <t>PDA241-SRT02-105B0-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/PDA241-SRT02-105B0/PDA241-SRT02-105B0-ND/3781560</t>
+  </si>
+  <si>
+    <t>POT00004</t>
+  </si>
+  <si>
+    <t>POT_TWIN</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pot, Dual, 1M, Log, 0.25W, Panel Mount, Solder Lugs</t>
+  </si>
+  <si>
+    <t>Antique Electronic Supply</t>
+  </si>
+  <si>
+    <t>R-V38-2X1MA</t>
+  </si>
+  <si>
+    <t>http://www.tubesandmore.com/products/R-V38-2X1MA</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Switch Function</t>
+  </si>
+  <si>
+    <t>Voltage Rating - AC</t>
+  </si>
+  <si>
+    <t>Voltage Rating - DC</t>
+  </si>
+  <si>
+    <t>Current Rating</t>
+  </si>
+  <si>
+    <t>SW00001</t>
+  </si>
+  <si>
+    <t>SW_DPDT</t>
+  </si>
+  <si>
+    <t>SW_DPDT_PANELMNT</t>
+  </si>
+  <si>
+    <t>DPDT</t>
+  </si>
+  <si>
+    <t>On - On</t>
+  </si>
+  <si>
+    <t>125V</t>
+  </si>
+  <si>
+    <t>28V</t>
+  </si>
+  <si>
+    <t>5A (AC/DC)</t>
+  </si>
+  <si>
+    <t>Switch, Toggle, DPDT On-On, 125VAC, 5A, Panel-Mount</t>
+  </si>
+  <si>
+    <t>Carling</t>
+  </si>
+  <si>
+    <t>2M1-DP1-T1-B1-M1QE</t>
+  </si>
+  <si>
+    <t>432-1148-ND</t>
+  </si>
+  <si>
+    <t>SW00002</t>
+  </si>
+  <si>
+    <t>SW_SPDT</t>
+  </si>
+  <si>
+    <t>SW_SPDT_PANELMNT</t>
+  </si>
+  <si>
+    <t>SPST</t>
+  </si>
+  <si>
+    <t>120V</t>
+  </si>
+  <si>
+    <t>Switch, Toggle, SPDT On-On, 125VAC, 5A, Panel-Mount</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>100SP1T1B1M1QEH</t>
+  </si>
+  <si>
+    <t>EG2350-ND</t>
+  </si>
+  <si>
     <t>BTN00001</t>
   </si>
   <si>
@@ -88,33 +254,33 @@
     <t>1825095-3</t>
   </si>
   <si>
-    <t>0.5W</t>
-  </si>
-  <si>
-    <t>Pot, 20k Linear, 0.5W, 20%, Panel Mount, Solder Lugs</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>P230-2EC22BR20K</t>
-  </si>
-  <si>
     <t>TE Connectivity</t>
   </si>
   <si>
     <t>Button, SPST, Off-Momentary, Normally Open, 20V, 0.4VA</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
-    <t>987-1660-ND</t>
-  </si>
-  <si>
     <t>450-1369-ND</t>
   </si>
   <si>
+    <t>http://www.digikey.com/product-detail/en/1825095-3/450-1369-ND/969179</t>
+  </si>
+  <si>
+    <t>BTN-2N-2G</t>
+  </si>
+  <si>
+    <t>1-1825027-1</t>
+  </si>
+  <si>
+    <t>Button, SPST, Off-Momentary, Normally Open, 24V, 50mA, Round, 7mm</t>
+  </si>
+  <si>
+    <t>450-1658-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1-1825027-1/450-1658-ND/1632544</t>
+  </si>
+  <si>
     <t>VAC</t>
   </si>
   <si>
@@ -130,27 +296,9 @@
     <t>MECH</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Switch Function</t>
-  </si>
-  <si>
-    <t>Voltage Rating - AC</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Voltage Rating - DC</t>
-  </si>
-  <si>
     <t>1A</t>
   </si>
   <si>
-    <t>Current Rating</t>
-  </si>
-  <si>
     <t>Fuse, Cartridge, 5x20mm, 125VAC, 1A, Medium Response</t>
   </si>
   <si>
@@ -163,139 +311,40 @@
     <t>F3625-ND</t>
   </si>
   <si>
-    <t>SW00001</t>
-  </si>
-  <si>
-    <t>SW_DPDT</t>
-  </si>
-  <si>
-    <t>SW_DPDT_PANELMNT</t>
-  </si>
-  <si>
-    <t>DPDT</t>
-  </si>
-  <si>
-    <t>On - On</t>
-  </si>
-  <si>
-    <t>125V</t>
-  </si>
-  <si>
-    <t>28V</t>
-  </si>
-  <si>
-    <t>5A (AC/DC)</t>
-  </si>
-  <si>
-    <t>Switch, Toggle, DPDT On-On, 125VAC, 5A, Panel-Mount</t>
-  </si>
-  <si>
-    <t>Carling</t>
-  </si>
-  <si>
-    <t>2M1-DP1-T1-B1-M1QE</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/0233001.MXP/F3625-ND/778050</t>
   </si>
   <si>
-    <t>432-1148-ND</t>
-  </si>
-  <si>
-    <t>SW00002</t>
-  </si>
-  <si>
-    <t>SW_SPDT</t>
-  </si>
-  <si>
-    <t>SW_SPDT_PANELMNT</t>
-  </si>
-  <si>
-    <t>SPST</t>
-  </si>
-  <si>
-    <t>120V</t>
-  </si>
-  <si>
-    <t>Switch, Toggle, SPDT On-On, 125VAC, 5A, Panel-Mount</t>
-  </si>
-  <si>
-    <t>E-Switch</t>
-  </si>
-  <si>
-    <t>100SP1T1B1M1QEH</t>
-  </si>
-  <si>
-    <t>EG2350-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/1825095-3/450-1369-ND/969179</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/P230-2EC22BR20K/987-1660-ND/4780751</t>
-  </si>
-  <si>
-    <t>POT00002</t>
-  </si>
-  <si>
-    <t>250k</t>
-  </si>
-  <si>
-    <t>0.25W</t>
-  </si>
-  <si>
-    <t>Pot, 250k, Linear, 0.25W, 20%, Panel Mount, Solder Lugs</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>PDB241-GNL02-254B0</t>
-  </si>
-  <si>
-    <t>PDB241-GNL02-254B0-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/PDB241-GNL02-254B0/PDB241-GNL02-254B0-ND/3780764</t>
-  </si>
-  <si>
-    <t>POT00003</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>Pot, 1M, Linear, 0.5W, 15%, Panel Mount, Solder Lugs</t>
-  </si>
-  <si>
-    <t>PDA241-SRT02-105B0</t>
-  </si>
-  <si>
-    <t>PDA241-SRT02-105B0-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/PDA241-SRT02-105B0/PDA241-SRT02-105B0-ND/3781560</t>
-  </si>
-  <si>
-    <t>POT00004</t>
-  </si>
-  <si>
-    <t>POT_TWIN</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>Pot, Dual, 1M, Log, 0.25W, Panel Mount, Solder Lugs</t>
-  </si>
-  <si>
-    <t>Antique Electronic Supply</t>
-  </si>
-  <si>
-    <t>R-V38-2X1MA</t>
-  </si>
-  <si>
-    <t>http://www.tubesandmore.com/products/R-V38-2X1MA</t>
+    <t>SHD00001</t>
+  </si>
+  <si>
+    <t>SHIELD-SMD</t>
+  </si>
+  <si>
+    <t>SHIELD_21x21x3_FRAME_SMD</t>
+  </si>
+  <si>
+    <t>RF Shield, Frame, 20mm x 20mm x 3mm, SMD</t>
+  </si>
+  <si>
+    <t>Wurth</t>
+  </si>
+  <si>
+    <t>732-2486-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/36103205/732-2486-ND/2337461</t>
+  </si>
+  <si>
+    <t>SHD00002</t>
+  </si>
+  <si>
+    <t>RF Shield, Cover, 20mm x 20mm x 3mm</t>
+  </si>
+  <si>
+    <t>732-2488-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/36003200/732-2488-ND/2337463</t>
   </si>
 </sst>
 </file>
@@ -370,16 +419,16 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -404,110 +453,265 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="9" max="9" width="46.43"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2.88</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3.97</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3.49</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5">
-        <v>125.0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>60</v>
+      <c r="N5" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M2"/>
+    <hyperlink r:id="rId1" ref="O2"/>
+    <hyperlink r:id="rId2" ref="O3"/>
+    <hyperlink r:id="rId3" ref="O4"/>
+    <hyperlink r:id="rId4" ref="O5"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -537,19 +741,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -578,46 +782,46 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O2" s="5">
         <v>3.17</v>
@@ -625,46 +829,46 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O3" s="5">
         <v>2.11</v>
@@ -721,41 +925,74 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I2" s="9">
         <v>2.07</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.13703</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="J3"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -765,254 +1002,223 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="9" max="9" width="46.43"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>92</v>
+      </c>
+      <c r="D2" s="5">
+        <v>125.0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="M2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="40.14"/>
+    <col customWidth="1" min="6" max="6" width="23.0"/>
+    <col customWidth="1" min="7" max="7" width="9.43"/>
+    <col customWidth="1" min="8" max="8" width="20.43"/>
+    <col customWidth="1" min="9" max="9" width="14.14"/>
+    <col customWidth="1" min="10" max="10" width="18.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3.6103205E7</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="9">
-        <v>2.88</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>72</v>
+      <c r="H2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.8875</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3.97</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="5">
-        <v>3.49</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3.60032E7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.8875</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="O2"/>
-    <hyperlink r:id="rId2" ref="O3"/>
-    <hyperlink r:id="rId3" ref="O4"/>
-    <hyperlink r:id="rId4" ref="O5"/>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="J3"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>